--- a/part-4 Routing (static)/subnetting of all port.xlsx
+++ b/part-4 Routing (static)/subnetting of all port.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\CiscoPacketTracer\part-4 Routing (static)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A51FE34-B7E9-4A2B-B081-8A926C9224EC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D4977AA-1AF7-4600-A6AE-B4402CEDADD5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C61DD1E7-C80E-488A-8AFA-0C50E3D193F3}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="76">
   <si>
     <t>IP's</t>
   </si>
@@ -234,10 +234,6 @@
   <si>
     <t>/25
 255.255.255.128</t>
-  </si>
-  <si>
-    <t>/30
-255.255.255.254</t>
   </si>
   <si>
     <t>Unknown Network</t>
@@ -739,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE7772A4-FDE4-4846-AE58-BC2563D9EA9E}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H21" workbookViewId="0">
-      <selection activeCell="M37" sqref="M37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -785,7 +781,7 @@
     <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="E10" s="1"/>
       <c r="K10" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.3">
@@ -814,10 +810,10 @@
         <v>11</v>
       </c>
       <c r="K11" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="L11" s="9" t="s">
         <v>69</v>
-      </c>
-      <c r="L11" s="9" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="28.8" x14ac:dyDescent="0.3">
@@ -991,7 +987,7 @@
         <v>50</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>51</v>
@@ -1017,7 +1013,7 @@
         <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>55</v>
@@ -1044,7 +1040,7 @@
         <v>50</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>59</v>
@@ -1059,15 +1055,15 @@
         <v>62</v>
       </c>
       <c r="K19" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K20" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L20" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="L20" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.3">
@@ -1080,7 +1076,7 @@
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K22" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L22" s="10" t="s">
         <v>55</v>
@@ -1107,7 +1103,7 @@
         <v>40</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.3">
@@ -1115,7 +1111,7 @@
         <v>40</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.3">
@@ -1123,7 +1119,7 @@
         <v>21</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.3">
@@ -1131,20 +1127,20 @@
         <v>28</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K30" s="13" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.3">
       <c r="K31" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="L31" s="14" t="s">
         <v>69</v>
-      </c>
-      <c r="L31" s="14" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.3">
@@ -1152,7 +1148,7 @@
         <v>51</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="11:12" x14ac:dyDescent="0.3">
@@ -1160,7 +1156,7 @@
         <v>21</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="11:12" x14ac:dyDescent="0.3">
@@ -1168,7 +1164,7 @@
         <v>28</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="11:12" x14ac:dyDescent="0.3">
